--- a/teaser/examples/2022-02-27_Swimming pool_DatabaseAhlen.xlsx
+++ b/teaser/examples/2022-02-27_Swimming pool_DatabaseAhlen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_Python\TEASER\teaser\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524F193F-AA4B-452F-B8C4-F8D3607FE9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D319C934-68EE-49EE-B259-2C7F8DEC1D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zone Data" sheetId="5" r:id="rId1"/>
@@ -68,30 +68,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="126">
   <si>
     <t>Envelope Surfaces of Zones in an Example Swimming Pool</t>
-  </si>
-  <si>
-    <t>Zone number</t>
-  </si>
-  <si>
-    <t>Zone 1</t>
-  </si>
-  <si>
-    <t>Zone 2</t>
-  </si>
-  <si>
-    <t>Zone 3</t>
-  </si>
-  <si>
-    <t>Zone 4</t>
-  </si>
-  <si>
-    <t>Zone 5</t>
-  </si>
-  <si>
-    <t>Zone 6</t>
   </si>
   <si>
     <t xml:space="preserve">Outer walls and cardinal directions of them, including transparent elements [m²]
@@ -531,12 +510,6 @@
     <t>Supervisory_room</t>
   </si>
   <si>
-    <t>Technical room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone name </t>
-  </si>
-  <si>
     <t>pool_type</t>
   </si>
   <si>
@@ -574,6 +547,15 @@
   </si>
   <si>
     <t>without_ozone</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>Don't change name of zones</t>
+  </si>
+  <si>
+    <t>Technical_room</t>
   </si>
 </sst>
 </file>
@@ -621,11 +603,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -693,6 +670,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -708,7 +692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -890,17 +874,6 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -1037,19 +1010,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1099,12 +1059,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
+      <top style="double">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1114,7 +1076,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="double">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1130,7 +1092,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1140,10 +1102,8 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1154,17 +1114,6 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1234,15 +1183,39 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1256,416 +1229,397 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -2052,640 +2006,623 @@
     <tabColor theme="4" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="28.85546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="13" customWidth="1"/>
-    <col min="4" max="9" width="13.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" style="1" customWidth="1"/>
     <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-    </row>
-    <row r="2" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-    </row>
-    <row r="3" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="135" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+    </row>
+    <row r="3" spans="1:10" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="130" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="131"/>
+      <c r="D3" s="132" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="133" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="133" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="133" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="134" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="133" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="129" t="s">
+      <c r="B4" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="115" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="116" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="114" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="116" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="117" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="130" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="121" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="121" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="122" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="120" t="s">
-        <v>116</v>
-      </c>
-      <c r="I4" s="121" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="124" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="131">
+      <c r="D4" s="110">
         <f>10*6.2</f>
         <v>62</v>
       </c>
-      <c r="E5" s="70">
+      <c r="E4" s="67">
         <f>31.5*3.25</f>
         <v>102.375</v>
       </c>
-      <c r="F5" s="69">
-        <v>0</v>
-      </c>
-      <c r="G5" s="69">
-        <v>0</v>
-      </c>
-      <c r="H5" s="69">
-        <v>0</v>
-      </c>
-      <c r="I5" s="71">
+      <c r="F4" s="66">
+        <v>0</v>
+      </c>
+      <c r="G4" s="67">
+        <v>0</v>
+      </c>
+      <c r="H4" s="66">
+        <v>0</v>
+      </c>
+      <c r="I4" s="68">
         <f>6.25*10</f>
         <v>62.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="5" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="125" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="132">
-        <v>0</v>
-      </c>
-      <c r="E6" s="73">
+      <c r="B5" s="122"/>
+      <c r="C5" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="111">
+        <v>0</v>
+      </c>
+      <c r="E5" s="69">
         <f>8.5*3.25</f>
         <v>27.625</v>
       </c>
-      <c r="F6" s="73">
-        <v>0</v>
-      </c>
-      <c r="G6" s="72">
+      <c r="F5" s="69">
+        <v>0</v>
+      </c>
+      <c r="G5" s="69">
         <f>29*6.5</f>
         <v>188.5</v>
       </c>
-      <c r="H6" s="73">
-        <v>0</v>
-      </c>
-      <c r="I6" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="H5" s="69">
+        <v>0</v>
+      </c>
+      <c r="I5" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="132">
+      <c r="B6" s="122"/>
+      <c r="C6" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="111">
         <f>(15+24)*6.2+13*2</f>
         <v>267.8</v>
       </c>
-      <c r="E7" s="73">
-        <v>0</v>
-      </c>
-      <c r="F7" s="73">
-        <v>0</v>
-      </c>
-      <c r="G7" s="73">
-        <v>0</v>
-      </c>
-      <c r="H7" s="73">
-        <v>0</v>
-      </c>
-      <c r="I7" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="E6" s="69">
+        <v>0</v>
+      </c>
+      <c r="F6" s="69">
+        <v>0</v>
+      </c>
+      <c r="G6" s="69">
+        <v>0</v>
+      </c>
+      <c r="H6" s="69">
+        <v>0</v>
+      </c>
+      <c r="I6" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="126" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="133">
+      <c r="B7" s="122"/>
+      <c r="C7" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="112">
         <f>24.88*6.2</f>
         <v>154.256</v>
       </c>
-      <c r="E8" s="76">
-        <v>0</v>
-      </c>
-      <c r="F8" s="76">
-        <v>0</v>
-      </c>
-      <c r="G8" s="75">
-        <v>0</v>
-      </c>
-      <c r="H8" s="76">
-        <v>0</v>
-      </c>
-      <c r="I8" s="77">
+      <c r="E7" s="71">
+        <v>0</v>
+      </c>
+      <c r="F7" s="71">
+        <v>0</v>
+      </c>
+      <c r="G7" s="71">
+        <v>0</v>
+      </c>
+      <c r="H7" s="71">
+        <v>0</v>
+      </c>
+      <c r="I7" s="72">
         <f>6.25*5+3*3.25</f>
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="8" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="106" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="134">
+      <c r="B8" s="122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="113">
         <f>3*6.2</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E8" s="73">
         <f>(2.26*1)*7</f>
         <v>15.819999999999999</v>
       </c>
-      <c r="F9" s="78">
-        <v>0</v>
-      </c>
-      <c r="G9" s="78">
-        <v>0</v>
-      </c>
-      <c r="H9" s="78">
-        <v>0</v>
-      </c>
-      <c r="I9" s="79">
+      <c r="F8" s="73">
+        <v>0</v>
+      </c>
+      <c r="G8" s="73">
+        <v>0</v>
+      </c>
+      <c r="H8" s="73">
+        <v>0</v>
+      </c>
+      <c r="I8" s="74">
         <f>1.51*2+2*1.51</f>
         <v>6.04</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="122"/>
+      <c r="C9" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="111">
+        <v>0</v>
+      </c>
+      <c r="E9" s="69">
+        <v>0</v>
+      </c>
+      <c r="F9" s="69">
+        <v>0</v>
+      </c>
+      <c r="G9" s="75">
+        <f>G5-(2.5*6.5)</f>
+        <v>172.25</v>
+      </c>
+      <c r="H9" s="69">
+        <v>0</v>
+      </c>
+      <c r="I9" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="125" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="132">
-        <v>0</v>
-      </c>
-      <c r="E10" s="73">
-        <v>0</v>
-      </c>
-      <c r="F10" s="73">
-        <v>0</v>
-      </c>
-      <c r="G10" s="80">
-        <f>G6-(2.5*6.5)</f>
-        <v>172.25</v>
-      </c>
-      <c r="H10" s="73">
-        <v>0</v>
-      </c>
-      <c r="I10" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="135">
+      <c r="B10" s="122"/>
+      <c r="C10" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="114">
         <f>24*6.2+15*4+13*2</f>
         <v>234.8</v>
       </c>
-      <c r="E11" s="73">
-        <v>0</v>
-      </c>
-      <c r="F11" s="73">
-        <v>0</v>
-      </c>
-      <c r="G11" s="73">
-        <v>0</v>
-      </c>
-      <c r="H11" s="73">
-        <v>0</v>
-      </c>
-      <c r="I11" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="E10" s="69">
+        <v>0</v>
+      </c>
+      <c r="F10" s="69">
+        <v>0</v>
+      </c>
+      <c r="G10" s="69">
+        <v>0</v>
+      </c>
+      <c r="H10" s="69">
+        <v>0</v>
+      </c>
+      <c r="I10" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="128" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="136">
+      <c r="B11" s="122"/>
+      <c r="C11" s="109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="115">
         <f>24.88*6.2</f>
         <v>154.256</v>
       </c>
-      <c r="E12" s="76">
-        <v>0</v>
-      </c>
-      <c r="F12" s="76">
-        <v>0</v>
-      </c>
-      <c r="G12" s="76">
-        <v>0</v>
-      </c>
-      <c r="H12" s="76">
-        <v>0</v>
-      </c>
-      <c r="I12" s="82">
+      <c r="E11" s="71">
+        <v>0</v>
+      </c>
+      <c r="F11" s="71">
+        <v>0</v>
+      </c>
+      <c r="G11" s="71">
+        <v>0</v>
+      </c>
+      <c r="H11" s="71">
+        <v>0</v>
+      </c>
+      <c r="I11" s="77">
         <f>2.16*2*2</f>
         <v>8.64</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="12" spans="1:10" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="137">
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="78"/>
+      <c r="D12" s="116">
         <f>53*25</f>
         <v>1325</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E12" s="79">
         <f>8.5*31.5</f>
         <v>267.75</v>
       </c>
-      <c r="F13" s="112">
+      <c r="F12" s="102">
         <f>8*31.5</f>
         <v>252</v>
       </c>
-      <c r="G13" s="84">
+      <c r="G12" s="79">
         <f>29*8.5</f>
         <v>246.5</v>
       </c>
-      <c r="H13" s="84">
-        <v>0</v>
-      </c>
-      <c r="I13" s="85">
+      <c r="H12" s="136">
+        <v>0</v>
+      </c>
+      <c r="I12" s="80">
         <f>8*17.2</f>
         <v>137.6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="13" spans="1:10" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="138">
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="78"/>
+      <c r="D13" s="117">
         <f>1325-(12.5*10+9.26*25+25*16.66)</f>
         <v>552</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E13" s="79">
         <f>8.5*31.5</f>
         <v>267.75</v>
       </c>
-      <c r="F14" s="84">
+      <c r="F13" s="79">
         <f>8*31.5</f>
         <v>252</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G13" s="5">
         <f>29*8.5</f>
         <v>246.5</v>
       </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="113">
+      <c r="H13" s="137">
+        <v>0</v>
+      </c>
+      <c r="I13" s="103">
         <f>17.2*8+9.26*25+2.23*(25+9.26+9.26)</f>
         <v>466.14960000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="14" spans="1:10" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="139">
+      <c r="B14" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="81"/>
+      <c r="D14" s="118">
         <f>6.2*(25*0.5+43*0.5+14)</f>
         <v>297.60000000000002</v>
       </c>
-      <c r="E15" s="87">
+      <c r="E14" s="82">
         <f>(31.5*0.5+8.5)*3.25</f>
         <v>78.8125</v>
       </c>
-      <c r="F15" s="87">
+      <c r="F14" s="82">
         <f>3.25*(31.5+8+8+(7*8)+(2*8))</f>
         <v>388.375</v>
       </c>
-      <c r="G15" s="87">
-        <f>6.2*((G16/8.51)*0.5+8.51*0.5+8.51) + 6.2*(3.885+5.165)</f>
+      <c r="G14" s="82">
+        <f>6.2*((G15/8.51)*0.5+8.51*0.5+8.51) + 6.2*(3.885+5.165)</f>
         <v>135.25300000000001</v>
       </c>
-      <c r="H15" s="87">
+      <c r="H14" s="82">
         <f>(21.2/2)*4*3.25</f>
         <v>137.79999999999998</v>
       </c>
-      <c r="I15" s="88">
+      <c r="I14" s="83">
         <f>0.5*16.66*2.23+(25-16.66)*2.23+17.2*6.25+8*6.25*2</f>
         <v>244.67410000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="15" spans="1:10" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="139">
-        <v>0</v>
-      </c>
-      <c r="E16" s="87">
-        <v>0</v>
-      </c>
-      <c r="F16" s="87">
+      <c r="B15" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="81"/>
+      <c r="D15" s="118">
+        <v>0</v>
+      </c>
+      <c r="E15" s="82">
+        <v>0</v>
+      </c>
+      <c r="F15" s="82">
         <f>8*31.5</f>
         <v>252</v>
       </c>
-      <c r="G16" s="87">
-        <v>0</v>
-      </c>
-      <c r="H16" s="87">
+      <c r="G15" s="82">
+        <v>0</v>
+      </c>
+      <c r="H15" s="82">
         <f>11.79+9.41</f>
         <v>21.2</v>
       </c>
-      <c r="I16" s="88">
+      <c r="I15" s="83">
         <f>25*9.26</f>
         <v>231.5</v>
       </c>
     </row>
+    <row r="16" spans="1:10" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="84"/>
+      <c r="D16" s="118">
+        <f>9.26*25</f>
+        <v>231.5</v>
+      </c>
+      <c r="E16" s="82">
+        <v>0</v>
+      </c>
+      <c r="F16" s="82">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="82">
+        <f>11.79+9.41</f>
+        <v>21.2</v>
+      </c>
+      <c r="I16" s="85">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7"/>
+    </row>
     <row r="17" spans="1:10" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="139">
-        <f>9.26*25</f>
-        <v>231.5</v>
-      </c>
-      <c r="E17" s="87">
-        <v>0</v>
-      </c>
-      <c r="F17" s="87">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="87">
+        <v>12</v>
+      </c>
+      <c r="C17" s="78"/>
+      <c r="D17" s="116">
+        <f>53*25</f>
+        <v>1325</v>
+      </c>
+      <c r="E17" s="79">
+        <f>8.5*31.5</f>
+        <v>267.75</v>
+      </c>
+      <c r="F17" s="79">
+        <f>8*31.5</f>
+        <v>252</v>
+      </c>
+      <c r="G17" s="5">
+        <f>29*8.5</f>
+        <v>246.5</v>
+      </c>
+      <c r="H17" s="79">
         <f>11.79+9.41</f>
         <v>21.2</v>
       </c>
-      <c r="I17" s="90">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7"/>
+      <c r="I17" s="8">
+        <f>8*17.2+9.26*25</f>
+        <v>369.1</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="137">
-        <f>53*25</f>
-        <v>1325</v>
-      </c>
-      <c r="E18" s="84">
-        <f>8.5*31.5</f>
-        <v>267.75</v>
-      </c>
-      <c r="F18" s="84">
-        <f>8*31.5</f>
-        <v>252</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="78"/>
+      <c r="D18" s="116">
+        <v>8215</v>
+      </c>
+      <c r="E18" s="79">
+        <v>963.9</v>
+      </c>
+      <c r="F18" s="79">
+        <v>819</v>
       </c>
       <c r="G18" s="5">
-        <f>29*8.5</f>
-        <v>246.5</v>
-      </c>
-      <c r="H18" s="84">
-        <f>11.79+9.41</f>
-        <v>21.2</v>
+        <v>1528.3</v>
+      </c>
+      <c r="H18" s="79">
+        <v>68.899999999999991</v>
       </c>
       <c r="I18" s="8">
-        <f>8*17.2+9.26*25</f>
-        <v>369.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1251.5450000000001</v>
+      </c>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>15</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="139">
-        <v>8215</v>
-      </c>
-      <c r="E19" s="87">
-        <v>963.9</v>
-      </c>
-      <c r="F19" s="87">
-        <v>819</v>
-      </c>
-      <c r="G19" s="87">
-        <v>1528.3</v>
-      </c>
-      <c r="H19" s="87">
-        <v>68.899999999999991</v>
-      </c>
-      <c r="I19" s="90">
-        <v>1251.5450000000001</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="84"/>
+      <c r="D19" s="118">
+        <v>2</v>
+      </c>
+      <c r="E19" s="82">
+        <v>0</v>
+      </c>
+      <c r="F19" s="82">
+        <v>0</v>
+      </c>
+      <c r="G19" s="82">
+        <v>0</v>
+      </c>
+      <c r="H19" s="82">
+        <v>0</v>
+      </c>
+      <c r="I19" s="85">
+        <v>0</v>
       </c>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>16</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="141"/>
-      <c r="D20" s="23">
-        <v>2</v>
-      </c>
-      <c r="E20" s="23">
-        <v>0</v>
-      </c>
-      <c r="F20" s="23">
-        <v>0</v>
-      </c>
-      <c r="G20" s="23">
-        <v>0</v>
-      </c>
-      <c r="H20" s="23">
-        <v>0</v>
-      </c>
-      <c r="I20" s="23">
-        <v>0</v>
-      </c>
+    <row r="20" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+    <row r="21" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="10"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:10" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J26" s="107"/>
-    </row>
-    <row r="27" spans="1:10" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J27" s="107"/>
-    </row>
-    <row r="28" spans="1:10" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:10" ht="46.9" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="123"/>
+    </row>
+    <row r="26" spans="1:10" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="123"/>
+    </row>
+    <row r="27" spans="1:10" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:10" ht="46.9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="J25:J26"/>
   </mergeCells>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="G22">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2703,11 +2640,11 @@
   </sheetPr>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2722,775 +2659,775 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="108" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
+      <c r="B1" s="120" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
     </row>
     <row r="2" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="140" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
+      <c r="B2" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="110" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="106"/>
+      <c r="B4" s="124" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="122"/>
       <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:15" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
-      <c r="B5" s="110" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="106"/>
+      <c r="B5" s="124" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="122"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="E5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="B6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="16">
         <f>SUM(E6:J6)</f>
         <v>541</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="61">
         <v>416</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="61">
         <v>125</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="105" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="64">
+      <c r="B7" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="61">
         <v>25</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="61">
         <v>16.600000000000001</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
     </row>
     <row r="8" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="105" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="64">
+      <c r="B8" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="61">
         <v>16.600000000000001</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="61">
         <v>7.5</v>
       </c>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
     </row>
     <row r="9" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="64">
+      <c r="B9" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="61">
         <v>83.32</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="61">
         <v>45</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="23"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:15" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="64">
+      <c r="B10" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="61">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="61">
         <v>1</v>
       </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="20"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="B11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="16">
         <f>SUM(E11:J11)</f>
         <v>1040.2</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="61">
         <v>915.2</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="61">
         <v>125</v>
       </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="23"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="17">
+      <c r="B12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="16">
         <f>SUM(E12:J12)</f>
         <v>716.32891940711272</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="61">
         <v>559.82000000000005</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="61">
         <v>156.5089194071127</v>
       </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="24"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="23"/>
     </row>
     <row r="13" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="17">
+      <c r="B13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="16">
         <f>SUM(E13:J13)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="64">
-        <v>0</v>
-      </c>
-      <c r="F13" s="64">
-        <v>0</v>
-      </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
+      <c r="E13" s="61">
+        <v>0</v>
+      </c>
+      <c r="F13" s="61">
+        <v>0</v>
+      </c>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
     </row>
     <row r="14" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="17">
+      <c r="C14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="16">
         <f>SUM(E14:J14)</f>
         <v>299.82891940711272</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="61">
         <v>143.32000000000002</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="61">
         <v>156.5089194071127</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
     </row>
     <row r="15" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="17">
+      <c r="B15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="16">
         <f>SUM(E15:J15)</f>
         <v>21.658000000000001</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="61">
         <v>21.658000000000001</v>
       </c>
-      <c r="F15" s="64">
-        <v>0</v>
-      </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="25"/>
+      <c r="F15" s="61">
+        <v>0</v>
+      </c>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="65">
+      <c r="B16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="62">
         <v>301.14999999999998</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="63">
         <v>303.14999999999998</v>
       </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="23"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="1:12" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="27">
+      <c r="B17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="26">
         <v>2</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="27">
         <v>2</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:12" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>13</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="B18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
       <c r="L18" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>14</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="B19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
       <c r="L19" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>15</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18" t="str" cm="1">
+      <c r="B20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17" t="str" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(#REF!,MATCH($B$3,#REF!,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(#REF!,MATCH($B$3,#REF!,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(#REF!,MATCH($B$3,#REF!,0)))),MATCH(#REF!,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(#REF!,MATCH($B$3,#REF!,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(#REF!,MATCH($B$3,#REF!,0)))),0)))))),"","Freshwater")</f>
         <v>Freshwater</v>
       </c>
-      <c r="F20" s="18" t="str" cm="1">
+      <c r="F20" s="17" t="str" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(#REF!,MATCH($B$3,#REF!,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(#REF!,MATCH($B$3,#REF!,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(#REF!,MATCH($B$3,#REF!,0)))),MATCH(#REF!,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(#REF!,MATCH($B$3,#REF!,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(#REF!,MATCH($B$3,#REF!,0)))),0)))))),"","Freshwater")</f>
         <v>Freshwater</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:12" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="B21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:12" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>17</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="21">
+      <c r="B22" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="20">
         <v>0.8</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="21">
         <v>0.8</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>18</v>
       </c>
-      <c r="B23" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="21">
+      <c r="B23" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="20">
         <v>350</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="21">
         <v>350</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="B24" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
       <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>20</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="21">
-        <v>0</v>
-      </c>
-      <c r="F25" s="22">
-        <v>0</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="B25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="20">
+        <v>0</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>21</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
+      <c r="B26" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>22</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="21">
+      <c r="B27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="20">
         <v>30</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="21">
         <v>30</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>23</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="27">
+      <c r="B28" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="26">
         <v>30</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="27">
         <v>30</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:12" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>24</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="16" t="s">
+      <c r="B29" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
+      <c r="C29" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
     </row>
     <row r="30" spans="1:12" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>25</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
+      <c r="B30" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>26</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18">
-        <v>0</v>
-      </c>
-      <c r="F31" s="19">
-        <v>0</v>
-      </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="L31" s="107"/>
+      <c r="B31" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="L31" s="123"/>
     </row>
     <row r="32" spans="1:12" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>27</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18">
-        <v>0</v>
-      </c>
-      <c r="F32" s="19">
-        <v>0</v>
-      </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="L32" s="107"/>
+      <c r="B32" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17">
+        <v>0</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="L32" s="123"/>
     </row>
     <row r="33" spans="1:12" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>28</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18">
-        <v>0</v>
-      </c>
-      <c r="F33" s="19">
-        <v>0</v>
-      </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
+      <c r="B33" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17">
+        <v>0</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
     </row>
     <row r="34" spans="1:12" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>29</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18">
-        <v>0</v>
-      </c>
-      <c r="F34" s="19">
-        <v>0</v>
-      </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
+      <c r="B34" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17">
+        <v>0</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
     </row>
     <row r="35" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>30</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
+      <c r="B35" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
       <c r="L35" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3501,22 +3438,22 @@
     <mergeCell ref="B4:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="G18 I18:J18 E20:J35 E6:J17 G19:J19">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F18">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:F19">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3531,799 +3468,860 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="42" customWidth="1"/>
-    <col min="2" max="3" width="12.5703125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="24" style="42" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" style="42" customWidth="1"/>
-    <col min="6" max="6" width="43.140625" style="42" customWidth="1"/>
-    <col min="7" max="11" width="12.5703125" style="42" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="36.42578125" style="41" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="24" style="41" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="43.140625" style="41" customWidth="1"/>
+    <col min="7" max="11" width="12.5703125" style="41" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+    </row>
+    <row r="3" spans="1:14" s="42" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-    </row>
-    <row r="3" spans="1:14" s="43" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="31" t="s">
+      <c r="H4" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="B5" s="41">
+        <v>1</v>
+      </c>
+      <c r="C5" s="52">
+        <v>25</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="86">
+        <v>1.9375</v>
+      </c>
+      <c r="H5" s="86">
+        <v>2104.1999999999998</v>
+      </c>
+      <c r="I5" s="86">
+        <v>0.77584580000000003</v>
+      </c>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="127" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="41">
+        <v>2</v>
+      </c>
+      <c r="C6" s="52">
+        <v>16</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="33">
+        <v>0.04</v>
+      </c>
+      <c r="H6" s="86">
+        <v>31</v>
+      </c>
+      <c r="I6" s="86">
+        <v>1.45</v>
+      </c>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="127" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="41">
+        <v>3</v>
+      </c>
+      <c r="C7" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="31" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="86">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="86">
+        <v>1645</v>
+      </c>
+      <c r="I7" s="86">
+        <v>10</v>
+      </c>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="127" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="41">
+        <v>4</v>
+      </c>
+      <c r="C8" s="52">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="86">
+        <v>1690</v>
+      </c>
+      <c r="I8" s="86">
+        <v>1</v>
+      </c>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="128" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="41">
+        <v>5</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="32" t="s">
+      <c r="B10" s="38">
+        <v>1</v>
+      </c>
+      <c r="C10" s="87">
+        <v>12.5</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="32" t="s">
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="39">
+        <v>2</v>
+      </c>
+      <c r="C11" s="39">
+        <v>7</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="41">
+        <v>3</v>
+      </c>
+      <c r="C12" s="41">
+        <v>12.5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="125"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="41">
+        <v>4</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="125"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="128" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="40">
+        <v>5</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="42">
+      <c r="B15" s="41">
         <v>1</v>
       </c>
-      <c r="C5" s="55">
-        <v>25</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="34"/>
-      <c r="F5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="91">
-        <v>1.9375</v>
-      </c>
-      <c r="H5" s="91">
-        <v>2104.1999999999998</v>
-      </c>
-      <c r="I5" s="91">
-        <v>0.77584580000000003</v>
-      </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="42">
-        <v>2</v>
-      </c>
-      <c r="C6" s="55">
-        <v>16</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="34">
-        <v>0.04</v>
-      </c>
-      <c r="H6" s="91">
-        <v>31</v>
-      </c>
-      <c r="I6" s="91">
-        <v>1.45</v>
-      </c>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="42">
-        <v>3</v>
-      </c>
-      <c r="C7" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="91">
-        <v>0.7</v>
-      </c>
-      <c r="H7" s="91">
-        <v>1645</v>
-      </c>
-      <c r="I7" s="91">
-        <v>10</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="42">
-        <v>4</v>
-      </c>
-      <c r="C8" s="55">
-        <v>0.3</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="34">
-        <v>0.7</v>
-      </c>
-      <c r="H8" s="91">
-        <v>1690</v>
-      </c>
-      <c r="I8" s="91">
-        <v>1</v>
-      </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="42">
-        <v>5</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="39">
-        <v>1</v>
-      </c>
-      <c r="C10" s="92">
-        <v>12.5</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40">
-        <v>2</v>
-      </c>
-      <c r="C11" s="40">
-        <v>7</v>
-      </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="42">
-        <v>3</v>
-      </c>
-      <c r="C12" s="42">
-        <v>12.5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="42">
-        <v>4</v>
-      </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="41">
-        <v>5</v>
-      </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="111"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="42">
-        <v>1</v>
-      </c>
-      <c r="C15" s="58">
+      <c r="C15" s="55">
         <f>0.88</f>
         <v>0.88</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="36"/>
+      <c r="D15" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="35"/>
       <c r="F15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="35">
+        <v>70</v>
+      </c>
+      <c r="G15" s="34">
         <v>48</v>
       </c>
-      <c r="H15" s="91">
+      <c r="H15" s="86">
         <v>7800</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="38">
         <v>0.47699999999999998</v>
       </c>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="42">
+      <c r="A16" s="127" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="41">
         <v>2</v>
       </c>
-      <c r="C16" s="59">
+      <c r="C16" s="56">
         <f>0.5</f>
         <v>0.5</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="36"/>
+        <v>99</v>
+      </c>
+      <c r="E16" s="35"/>
       <c r="F16" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="36">
+        <v>100</v>
+      </c>
+      <c r="G16" s="35">
         <v>5</v>
       </c>
-      <c r="H16" s="91">
+      <c r="H16" s="86">
         <v>1200</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="39">
         <v>1</v>
       </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="42">
+      <c r="A17" s="127" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="41">
         <v>3</v>
       </c>
-      <c r="C17" s="94">
+      <c r="C17" s="89">
         <f>25.2</f>
         <v>25.2</v>
       </c>
-      <c r="D17" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="96" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="95">
+      <c r="D17" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="90">
         <v>0.04</v>
       </c>
-      <c r="H17" s="99">
+      <c r="H17" s="94">
         <v>31</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="39">
         <v>1.45</v>
       </c>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="42">
+      <c r="A18" s="127" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="41">
         <v>4</v>
       </c>
-      <c r="C18" s="59">
+      <c r="C18" s="56">
         <f>0.4</f>
         <v>0.4</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="36"/>
+        <v>99</v>
+      </c>
+      <c r="E18" s="35"/>
       <c r="F18" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="36">
+        <v>100</v>
+      </c>
+      <c r="G18" s="35">
         <v>5</v>
       </c>
-      <c r="H18" s="91">
+      <c r="H18" s="86">
         <v>1200</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="39">
         <v>1</v>
       </c>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41">
+      <c r="A19" s="128" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="40">
         <v>5</v>
       </c>
-      <c r="C19" s="59">
+      <c r="C19" s="56">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="98">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="93">
         <v>0.35</v>
       </c>
-      <c r="H19" s="100">
+      <c r="H19" s="95">
         <v>900</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="40">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="42">
+      <c r="A20" s="126" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="41">
         <v>1</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="38">
         <v>5</v>
       </c>
-      <c r="D20" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="39">
+      <c r="D20" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="38">
         <v>1.4</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="38">
         <v>250</v>
       </c>
-      <c r="I20" s="103">
+      <c r="I20" s="98">
         <v>2</v>
       </c>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="42">
+      <c r="A21" s="127" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="41">
         <v>2</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="39">
         <f>0.4</f>
         <v>0.4</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="40"/>
+        <v>103</v>
+      </c>
+      <c r="E21" s="39"/>
       <c r="F21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="40">
+        <v>101</v>
+      </c>
+      <c r="G21" s="39">
         <v>0.35</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="39">
         <v>900</v>
       </c>
-      <c r="I21" s="103">
+      <c r="I21" s="98">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="42">
+      <c r="A22" s="127" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="39">
         <v>5</v>
       </c>
-      <c r="D22" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="40"/>
+      <c r="D22" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="39"/>
       <c r="F22" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="40">
+        <v>72</v>
+      </c>
+      <c r="G22" s="39">
         <v>1.4</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="39">
         <v>250</v>
       </c>
-      <c r="I22" s="103">
+      <c r="I22" s="98">
         <v>2</v>
       </c>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="42">
+      <c r="A23" s="127" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="41">
         <v>4</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="39">
         <v>20</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="40"/>
+      <c r="D23" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="39"/>
       <c r="F23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="40">
+        <v>65</v>
+      </c>
+      <c r="G23" s="39">
         <v>1.94</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="39">
         <v>2104.1999999999998</v>
       </c>
-      <c r="I23" s="103">
+      <c r="I23" s="98">
         <v>0.77584580000000003</v>
       </c>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41">
+      <c r="A24" s="128" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="40">
         <v>5</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="40">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="41">
+        <v>81</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="40">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="40">
         <v>30</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24" s="40">
         <v>1.38</v>
       </c>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="42">
+      <c r="A25" s="126" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="41">
         <v>1</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="42">
+      <c r="A26" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="41">
         <v>2</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="42">
+      <c r="A27" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="41">
         <v>3</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="42">
+      <c r="A28" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="41">
         <v>4</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="41">
+      <c r="A29" s="128" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="40">
         <v>5</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="42">
+      <c r="A30" s="126" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="41">
         <v>1</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="42">
+      <c r="A31" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="41">
         <v>2</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="42">
+      <c r="A32" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="41">
         <v>3</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="42">
+      <c r="A33" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="41">
         <v>4</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="42">
+      <c r="A34" s="128" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="41">
         <v>5</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="37">
+      <c r="A35" s="129" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="36">
         <v>1</v>
       </c>
-      <c r="C35" s="68">
+      <c r="C35" s="65">
         <v>2.4</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="104" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" s="60">
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="99" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="57">
         <v>0.02</v>
       </c>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61">
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58">
         <v>0.5</v>
       </c>
-      <c r="K35" s="61">
+      <c r="K35" s="58">
         <v>7.0000000000000007E-2</v>
       </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
